--- a/data/trans_orig/P34B04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34B04-Habitat-trans_orig.xlsx
@@ -651,7 +651,7 @@
         <v>0.04662993104064551</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.04031943194474172</v>
+        <v>0.04031943194474173</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.1680299747105893</v>
@@ -671,31 +671,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2230433956007184</v>
+        <v>0.2242012820019105</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2096197614756936</v>
+        <v>0.2113439826910437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2101879002871178</v>
+        <v>0.218069990410544</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01796530193108852</v>
+        <v>0.01533928981040329</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02374350413089836</v>
+        <v>0.02319247310967703</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.0200822351916356</v>
+        <v>0.02144127608527737</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.128454157958935</v>
+        <v>0.1283404287528143</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1262838298797478</v>
+        <v>0.1262582062472222</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1193271161651395</v>
+        <v>0.1217884670541344</v>
       </c>
     </row>
     <row r="6">
@@ -706,31 +706,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3816649813876105</v>
+        <v>0.3841955923687223</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3651246966312142</v>
+        <v>0.3767294203271207</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4022169153107981</v>
+        <v>0.4063975122033366</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.08654710976556229</v>
+        <v>0.08677936630298473</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09704399568452825</v>
+        <v>0.09362340921445161</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07680486222032844</v>
+        <v>0.08072010410096368</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2187207624905156</v>
+        <v>0.216261922758465</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2177737846779697</v>
+        <v>0.2111311842724393</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2180076567369668</v>
+        <v>0.2216148330695047</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.06399597128327041</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.1181213552727781</v>
+        <v>0.1181213552727782</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.1794428642260728</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2588533162796671</v>
+        <v>0.2601680767273319</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2388786170419425</v>
+        <v>0.2415933104676254</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3977773842226727</v>
+        <v>0.3946630447339541</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01864374266301412</v>
+        <v>0.0175397241787814</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04138586636964801</v>
+        <v>0.04094749614620126</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.08238594261717166</v>
+        <v>0.0814987486645263</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1421999116931229</v>
+        <v>0.1442840977113428</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1504351191450173</v>
+        <v>0.1502943953474593</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2449543327726984</v>
+        <v>0.2523066338566227</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3997559838720995</v>
+        <v>0.4031655427073512</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3887552268096078</v>
+        <v>0.3793146829638289</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6030654266892654</v>
+        <v>0.605143185766329</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06060706550273722</v>
+        <v>0.06372861321644305</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.09659338989696956</v>
+        <v>0.09565318308706044</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1731862605827593</v>
+        <v>0.1657877496799404</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.223185827096445</v>
+        <v>0.2201222060214174</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2296184655218966</v>
+        <v>0.2301615353859221</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3667376806223522</v>
+        <v>0.3730757287611524</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.3262015210928842</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3685027829133321</v>
+        <v>0.3685027829133322</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.02687254105983575</v>
@@ -878,7 +878,7 @@
         <v>0.1877203218212234</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.2364284220498073</v>
+        <v>0.2364284220498074</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3055556675894985</v>
+        <v>0.3048112271606672</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2551070785858252</v>
+        <v>0.2525330028422441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2721113167937953</v>
+        <v>0.273720610402518</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0116675438713948</v>
+        <v>0.01012518390658371</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02822820621757948</v>
+        <v>0.02885540098784644</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06782567183465917</v>
+        <v>0.06540068362303258</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1648536661604457</v>
+        <v>0.15952356628995</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1448854498593461</v>
+        <v>0.1470517601153442</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1813930150162796</v>
+        <v>0.1860728864393424</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4803897310290113</v>
+        <v>0.4735049012604852</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.421601614615403</v>
+        <v>0.4262839024946781</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5041782542598754</v>
+        <v>0.4811223945426194</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05512603830877375</v>
+        <v>0.05347306927786723</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.09837658261881925</v>
+        <v>0.09472852500707524</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1609629676356281</v>
+        <v>0.1666730318099362</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2533904832587541</v>
+        <v>0.2508498515601207</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.231583617425415</v>
+        <v>0.239312716685908</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3048523156575432</v>
+        <v>0.3026305000389998</v>
       </c>
     </row>
     <row r="13">
@@ -969,7 +969,7 @@
         <v>0.4278717205437544</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.5233049745110633</v>
+        <v>0.5233049745110634</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>0.05043224508624881</v>
@@ -978,7 +978,7 @@
         <v>0.1044718895792131</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.0965881600282279</v>
+        <v>0.09658816002822788</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.2086570878579885</v>
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3171554299260786</v>
+        <v>0.3137907568310861</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3559941214927863</v>
+        <v>0.3437348358389428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4231804963335222</v>
+        <v>0.4258878790151587</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02695310480554899</v>
+        <v>0.02781025371301474</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.07146380916387524</v>
+        <v>0.06994766194639265</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06411914943698475</v>
+        <v>0.06483797695482643</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1733677594593563</v>
+        <v>0.1705752466846228</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2155984090959489</v>
+        <v>0.2162119230694904</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.249885305597</v>
+        <v>0.2448300945572951</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4708220253409145</v>
+        <v>0.4611043644183639</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5139803766673265</v>
+        <v>0.5179090538494355</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6416056871969269</v>
+        <v>0.6350326380996361</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08737581671192567</v>
+        <v>0.08542724784768829</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1499747496269777</v>
+        <v>0.1464572638361351</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1443087380851183</v>
+        <v>0.1470458542522071</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.250847103649817</v>
+        <v>0.253359425831634</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3107047677690908</v>
+        <v>0.3071261777084964</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3564487507288192</v>
+        <v>0.3558656998828904</v>
       </c>
     </row>
     <row r="16">
@@ -1087,7 +1087,7 @@
         <v>0.07034506183827244</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.09374483141801992</v>
+        <v>0.09374483141801991</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.1904765834553699</v>
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.309030489229004</v>
+        <v>0.3119768215356488</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3016830067422674</v>
+        <v>0.3029477070127816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3873372946930012</v>
+        <v>0.3855687351356455</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02640621021531458</v>
+        <v>0.02734842371568102</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.05389097457870796</v>
+        <v>0.05529243028619868</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.07458260608540199</v>
+        <v>0.07507594909531251</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1680216879850393</v>
+        <v>0.1718602914695365</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1813750732861761</v>
+        <v>0.1799649187333998</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2288629419133454</v>
+        <v>0.2333706420283794</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3892090217737613</v>
+        <v>0.3920140203019374</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3835051901825283</v>
+        <v>0.3838860502914406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.491582990039362</v>
+        <v>0.4899484203430992</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05407197267115471</v>
+        <v>0.05309359331937907</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.08912077843102721</v>
+        <v>0.08796800485785367</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1149791885458779</v>
+        <v>0.115280654313036</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2111972251436917</v>
+        <v>0.2139030167867113</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2239002105445873</v>
+        <v>0.2249465822872194</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2902121916427235</v>
+        <v>0.289509500137203</v>
       </c>
     </row>
     <row r="19">
